--- a/db.xlsx
+++ b/db.xlsx
@@ -78,10 +78,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>user</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>user_auth</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -150,18 +146,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>equipment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>孩子表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>kid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>kid_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -193,10 +181,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>temp_record</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>equip_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -261,10 +245,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tip_type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -286,6 +266,26 @@
   </si>
   <si>
     <t>贴士内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_kid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_equipment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_temp_record</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_tip</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -635,7 +635,7 @@
   <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -649,13 +649,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="H1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I1" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
@@ -663,13 +663,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H2" t="s">
         <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
@@ -683,35 +683,35 @@
         <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="H4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="H5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" t="s">
         <v>53</v>
-      </c>
-      <c r="J5" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
@@ -719,7 +719,7 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
@@ -727,13 +727,13 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I8" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
@@ -741,10 +741,10 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H9" t="s">
         <v>13</v>
@@ -752,60 +752,60 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H10" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="I10" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="J10" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
         <v>19</v>
       </c>
-      <c r="C11" t="s">
-        <v>20</v>
-      </c>
       <c r="H11" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="I11" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="J11" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
         <v>21</v>
-      </c>
-      <c r="C12" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
         <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
@@ -813,7 +813,7 @@
         <v>13</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
@@ -821,21 +821,21 @@
         <v>14</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" t="s">
         <v>26</v>
-      </c>
-      <c r="B25" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
@@ -843,7 +843,7 @@
         <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
@@ -854,7 +854,7 @@
         <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
@@ -865,7 +865,7 @@
         <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
@@ -881,10 +881,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
@@ -892,67 +892,67 @@
         <v>13</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B35" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C37" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B38" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C38" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" t="s">
         <v>49</v>
       </c>
-      <c r="B39" t="s">
-        <v>53</v>
-      </c>
       <c r="C39" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" t="s">
         <v>50</v>
       </c>
-      <c r="B40" t="s">
-        <v>54</v>
-      </c>
       <c r="C40" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/db.xlsx
+++ b/db.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="69">
   <si>
     <t>用户表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -90,14 +90,197 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>验证账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>verified</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否验证通过(0:无效1:有效)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证类型:username,phone,qq,weixin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nickname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昵称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头像url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年龄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孩子表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kid_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(10)</t>
+  </si>
+  <si>
+    <t>int(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(200)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温度记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equip_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>record_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>temperature</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxtime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mintime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isalarm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否报警(0:否1:是)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高温度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最低温度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测温时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tip_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴士类型(fever,food,cool)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴士内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_kid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_equipment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_temp_record</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_tip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>identifier</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>验证账号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>credential</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -106,186 +289,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>verified</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否验证通过(0:无效1:有效)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>验证类型:username,phone,qq,weixin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nickname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>昵称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>头像url</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>年龄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孩子表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kid_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int(10)</t>
-  </si>
-  <si>
-    <t>int(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(200)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>user_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>温度记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>equip_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>record_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>temperature</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxtime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mintime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isalarm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否报警(0:否1:是)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>decimal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(5)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高温度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最低温度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>温度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测温时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贴士</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tip_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贴士类型(fever,food,cool)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贴士内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tb_user</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tb_kid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tb_equipment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tb_temp_record</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tb_tip</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -635,7 +639,7 @@
   <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -649,13 +653,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" t="s">
         <v>63</v>
-      </c>
-      <c r="H1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
@@ -663,13 +667,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
         <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
@@ -683,35 +687,35 @@
         <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="H4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="H5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
@@ -727,21 +731,21 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -755,57 +759,57 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" t="s">
         <v>18</v>
       </c>
-      <c r="C11" t="s">
-        <v>19</v>
-      </c>
       <c r="H11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I11" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
@@ -813,7 +817,7 @@
         <v>13</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
@@ -821,7 +825,7 @@
         <v>14</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C24" t="s">
         <v>16</v>
@@ -829,13 +833,13 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
@@ -843,7 +847,7 @@
         <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
@@ -854,7 +858,7 @@
         <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
@@ -865,7 +869,7 @@
         <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
@@ -881,10 +885,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B33" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
@@ -892,67 +896,67 @@
         <v>13</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B37" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C37" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C38" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" t="s">
         <v>49</v>
-      </c>
-      <c r="C39" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C40" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/db.xlsx
+++ b/db.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="68">
   <si>
     <t>用户表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -26,7 +26,194 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>age</t>
+    <t>健康问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户授权表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昵称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头像url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孩子表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(10)</t>
+  </si>
+  <si>
+    <t>int(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温度记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>temperature</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高温度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测温时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tip_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴士类型(fever,food,cool)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴士内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_tip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isactive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:无效 1：有效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_user_auth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>identityType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>identifier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证类型:username,phone,qq,weixin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>credential</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证凭证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>verified</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否验证通过(0:无效1:有效)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nickname</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -38,114 +225,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>health_issue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isactive</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>健康问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(5)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0:无效 1：有效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户授权表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_auth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user主键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>identity_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>验证账号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>verified</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否验证通过(0:无效1:有效)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>验证类型:username,phone,qq,weixin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nickname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>昵称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>头像url</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>年龄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孩子表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kid_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int(10)</t>
-  </si>
-  <si>
-    <t>int(10)</t>
+    <t>healthIssue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_kid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_equipment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kidid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -153,143 +249,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>maxtime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mintime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isalarm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否报警(0:否1:是)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最低温度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>varchar(200)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>设备编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>温度记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>equip_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>record_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>temperature</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxtime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mintime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isalarm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否报警(0:否1:是)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>decimal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(5)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高温度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最低温度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>温度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测温时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贴士</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tip_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贴士类型(fever,food,cool)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贴士内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tb_user</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tb_kid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tb_equipment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tb_temp_record</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tb_tip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>identifier</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>credential</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>验证凭证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_id</t>
+    <t>equipid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recordTime</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -636,10 +632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -653,13 +649,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="H1" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="I1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
@@ -667,296 +663,288 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="I2" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="H3" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="I3" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="J3" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="H4" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="I4" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="J4" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="H5" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="I5" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="J5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="H8" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="I8" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="H9" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="H10" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="I10" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="J10" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="H11" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="I11" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="J11" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="C24" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C25" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>2</v>
+        <v>50</v>
+      </c>
+      <c r="B26" t="s">
+        <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" t="s">
         <v>3</v>
       </c>
-      <c r="B27" t="s">
-        <v>9</v>
-      </c>
       <c r="C27" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A29" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" t="s">
-        <v>7</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="B33" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="B34" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="B35" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="B36" t="s">
-        <v>31</v>
+        <v>64</v>
+      </c>
+      <c r="C36" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="C37" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="B38" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="C38" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="B39" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="C39" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A40" t="s">
-        <v>43</v>
-      </c>
-      <c r="B40" t="s">
-        <v>47</v>
-      </c>
-      <c r="C40" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/db.xlsx
+++ b/db.xlsx
@@ -93,43 +93,187 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>decimal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高温度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测温时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tip_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isactive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:无效 1：有效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_user_auth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>identityType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>identifier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证类型:username,phone,qq,weixin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>credential</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证凭证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>verified</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否验证通过(0:无效1:有效)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nickname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>birthday</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>headurl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>healthIssue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_kid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_equipment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kidid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxtime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mintime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isalarm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否报警(0:否1:是)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最低温度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(200)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_temp_record</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equipid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recordTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>temperature</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>datetime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>decimal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(5)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高温度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>温度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>设备id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测温时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贴士</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tip_type</t>
+    <t>tb_tip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -137,155 +281,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>varchar(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>content</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>贴士内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tb_user</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tb_tip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isactive</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0:无效 1：有效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tb_user_auth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user主键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>identityType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>identifier</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>验证账号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>验证类型:username,phone,qq,weixin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>credential</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>验证凭证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>verified</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否验证通过(0:无效1:有效)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nickname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>birthday</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>headurl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>healthIssue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tb_kid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tb_equipment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kidid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxtime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>decimal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mintime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isalarm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否报警(0:否1:是)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最低温度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(200)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tb_temp_record</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>equipid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>recordTime</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -635,7 +635,7 @@
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -649,13 +649,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="H1" t="s">
         <v>18</v>
       </c>
       <c r="I1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
@@ -674,44 +674,44 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="I3" t="s">
         <v>15</v>
       </c>
       <c r="J3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="H4" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="J4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="H5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I5" t="s">
         <v>19</v>
       </c>
-      <c r="I5" t="s">
-        <v>21</v>
-      </c>
       <c r="J5" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
@@ -719,32 +719,32 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
       </c>
       <c r="H8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I8" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H9" t="s">
         <v>7</v>
@@ -752,52 +752,52 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I10" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="J10" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H11" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="I11" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="J11" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
@@ -805,7 +805,7 @@
         <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
@@ -818,7 +818,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B24" t="s">
         <v>15</v>
@@ -829,7 +829,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B25" t="s">
         <v>12</v>
@@ -840,7 +840,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B26" t="s">
         <v>4</v>
@@ -851,7 +851,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B27" t="s">
         <v>3</v>
@@ -862,7 +862,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B28" t="s">
         <v>3</v>
@@ -876,7 +876,7 @@
         <v>13</v>
       </c>
       <c r="B32" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
@@ -889,7 +889,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B34" t="s">
         <v>15</v>
@@ -897,7 +897,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B35" t="s">
         <v>15</v>
@@ -905,10 +905,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B36" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C36" t="s">
         <v>17</v>
@@ -916,35 +916,35 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B37" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C37" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B38" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C38" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B39" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C39" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/db.xlsx
+++ b/db.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="72">
   <si>
     <t>用户表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -149,6 +149,122 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>verified</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否验证通过(0:无效1:有效)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nickname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>birthday</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>headurl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>healthIssue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_kid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_equipment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kidid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxtime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mintime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isalarm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否报警(0:否1:是)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最低温度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(200)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_temp_record</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equipid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recordTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>temperature</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_tip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴士类型(fever,food,cool)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴士内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>identityType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -157,135 +273,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>registerTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>salt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证盐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>credential</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证类型:username,phone,qq,weixin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>验证账号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>验证类型:username,phone,qq,weixin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>credential</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>验证凭证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>verified</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否验证通过(0:无效1:有效)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nickname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>birthday</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>headurl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>healthIssue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tb_kid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tb_equipment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kidid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxtime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>decimal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mintime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isalarm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否报警(0:否1:是)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最低温度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(200)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tb_temp_record</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>equipid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>recordTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>temperature</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>温度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tb_tip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贴士类型(fever,food,cool)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贴士内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -632,10 +648,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -655,7 +671,7 @@
         <v>18</v>
       </c>
       <c r="I1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
@@ -683,7 +699,7 @@
         <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="I3" t="s">
         <v>15</v>
@@ -694,10 +710,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="H4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I4" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="J4" t="s">
         <v>23</v>
@@ -705,13 +721,13 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="H5" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="I5" t="s">
         <v>19</v>
       </c>
       <c r="J5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
@@ -733,12 +749,12 @@
         <v>24</v>
       </c>
       <c r="I8" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
@@ -752,152 +768,152 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="H10" t="s">
         <v>25</v>
       </c>
       <c r="I10" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="J10" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="H11" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="I11" t="s">
         <v>26</v>
       </c>
       <c r="J11" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" t="s">
-        <v>15</v>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="B24" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B26" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" t="s">
         <v>3</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A32" t="s">
-        <v>13</v>
-      </c>
-      <c r="B32" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A33" t="s">
-        <v>7</v>
-      </c>
-      <c r="B33" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="B34" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="B35" t="s">
         <v>15</v>
@@ -905,46 +921,62 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>56</v>
-      </c>
-      <c r="C36" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B37" t="s">
-        <v>51</v>
-      </c>
-      <c r="C37" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B38" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="C38" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B39" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41" t="s">
         <v>20</v>
       </c>
-      <c r="C39" t="s">
-        <v>54</v>
+      <c r="C41" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/db.xlsx
+++ b/db.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="74">
   <si>
     <t>用户表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -303,23 +303,29 @@
   <si>
     <t>验证凭证</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tokenKey</t>
+  </si>
+  <si>
+    <t>token</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -349,7 +355,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -362,7 +368,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -436,7 +442,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -471,7 +476,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -647,20 +651,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -674,7 +678,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -688,7 +692,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -708,7 +712,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10">
       <c r="H4" t="s">
         <v>53</v>
       </c>
@@ -719,7 +723,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10">
       <c r="H5" t="s">
         <v>55</v>
       </c>
@@ -730,7 +734,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -738,7 +742,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -752,7 +756,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>39</v>
       </c>
@@ -766,7 +770,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>62</v>
       </c>
@@ -783,7 +787,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>63</v>
       </c>
@@ -800,7 +804,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
         <v>68</v>
       </c>
@@ -808,7 +812,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
         <v>64</v>
       </c>
@@ -816,7 +820,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
         <v>65</v>
       </c>
@@ -824,158 +828,166 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
         <v>33</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
         <v>14</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
         <v>7</v>
-      </c>
-      <c r="B25" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
-        <v>39</v>
       </c>
       <c r="B26" t="s">
         <v>15</v>
       </c>
-      <c r="C26" t="s">
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A27" t="s">
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
         <v>35</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>12</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C28" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A28" t="s">
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
         <v>36</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
         <v>4</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C29" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A29" t="s">
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
         <v>37</v>
-      </c>
-      <c r="B29" t="s">
-        <v>3</v>
-      </c>
-      <c r="C29" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A30" t="s">
-        <v>38</v>
       </c>
       <c r="B30" t="s">
         <v>3</v>
       </c>
       <c r="C30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A34" t="s">
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
         <v>13</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B35" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A35" t="s">
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
         <v>7</v>
-      </c>
-      <c r="B35" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A36" t="s">
-        <v>39</v>
       </c>
       <c r="B36" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B37" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
         <v>43</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B39" t="s">
         <v>50</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C39" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A39" t="s">
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
         <v>44</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B40" t="s">
         <v>45</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C40" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A40" t="s">
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
         <v>46</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B41" t="s">
         <v>19</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C41" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A41" t="s">
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
         <v>47</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B42" t="s">
         <v>20</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C42" t="s">
         <v>48</v>
       </c>
     </row>
@@ -987,12 +999,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1000,12 +1012,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/db.xlsx
+++ b/db.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="76">
   <si>
     <t>用户表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -309,23 +309,31 @@
   </si>
   <si>
     <t>token</t>
+  </si>
+  <si>
+    <t>loginTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上次登录时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -355,7 +363,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -368,7 +376,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -442,6 +450,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -476,6 +485,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -651,20 +661,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -678,7 +688,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -692,7 +702,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -712,7 +722,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="H4" t="s">
         <v>53</v>
       </c>
@@ -723,7 +733,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="H5" t="s">
         <v>55</v>
       </c>
@@ -734,7 +744,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -742,7 +752,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -756,7 +766,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>39</v>
       </c>
@@ -770,7 +780,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>62</v>
       </c>
@@ -787,7 +797,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>63</v>
       </c>
@@ -804,7 +814,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>68</v>
       </c>
@@ -812,7 +822,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>64</v>
       </c>
@@ -820,7 +830,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>65</v>
       </c>
@@ -828,7 +838,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>72</v>
       </c>
@@ -836,158 +846,166 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
         <v>33</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
         <v>14</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
         <v>7</v>
-      </c>
-      <c r="B26" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>39</v>
       </c>
       <c r="B27" t="s">
         <v>15</v>
       </c>
-      <c r="C27" t="s">
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
         <v>35</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
         <v>12</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C29" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
         <v>36</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>4</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C30" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
         <v>37</v>
-      </c>
-      <c r="B30" t="s">
-        <v>3</v>
-      </c>
-      <c r="C30" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>38</v>
       </c>
       <c r="B31" t="s">
         <v>3</v>
       </c>
       <c r="C31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
         <v>13</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B36" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
         <v>7</v>
-      </c>
-      <c r="B36" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" t="s">
-        <v>39</v>
       </c>
       <c r="B37" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B38" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
         <v>43</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B40" t="s">
         <v>50</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C40" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
-      <c r="A40" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
         <v>44</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B41" t="s">
         <v>45</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C41" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
-      <c r="A41" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
         <v>46</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B42" t="s">
         <v>19</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C42" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
-      <c r="A42" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
         <v>47</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B43" t="s">
         <v>20</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C43" t="s">
         <v>48</v>
       </c>
     </row>
@@ -999,12 +1017,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1012,12 +1030,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/db.xlsx
+++ b/db.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="77">
   <si>
     <t>用户表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -193,129 +193,133 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>decimal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mintime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isalarm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否报警(0:否1:是)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最低温度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(200)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_temp_record</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equipid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recordTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>temperature</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_tip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴士类型(fever,food,cool)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴士内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>identityType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>identifier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>registerTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>salt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证盐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>credential</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证类型:username,phone,qq,weixin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证凭证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tokenKey</t>
+  </si>
+  <si>
+    <t>token</t>
+  </si>
+  <si>
+    <t>loginTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上次登录时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>maxtime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>decimal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mintime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isalarm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否报警(0:否1:是)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最低温度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(200)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tb_temp_record</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>equipid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>recordTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>temperature</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>温度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tb_tip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贴士类型(fever,food,cool)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贴士内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>identityType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>identifier</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>registerTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>salt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>验证盐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注册时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>credential</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>验证类型:username,phone,qq,weixin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>验证账号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>验证凭证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tokenKey</t>
-  </si>
-  <si>
-    <t>token</t>
-  </si>
-  <si>
-    <t>loginTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上次登录时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -665,7 +669,7 @@
   <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -685,7 +689,7 @@
         <v>18</v>
       </c>
       <c r="I1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
@@ -713,7 +717,7 @@
         <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I3" t="s">
         <v>15</v>
@@ -724,10 +728,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="H4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4" t="s">
         <v>53</v>
-      </c>
-      <c r="I4" t="s">
-        <v>54</v>
       </c>
       <c r="J4" t="s">
         <v>23</v>
@@ -735,13 +739,13 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="H5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I5" t="s">
         <v>19</v>
       </c>
       <c r="J5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
@@ -763,12 +767,12 @@
         <v>24</v>
       </c>
       <c r="I8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
@@ -782,76 +786,76 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H10" t="s">
         <v>25</v>
       </c>
       <c r="I10" t="s">
+        <v>57</v>
+      </c>
+      <c r="J10" t="s">
         <v>58</v>
-      </c>
-      <c r="J10" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I11" t="s">
         <v>26</v>
       </c>
       <c r="J11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" t="s">
         <v>65</v>
-      </c>
-      <c r="C14" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" t="s">
         <v>72</v>
-      </c>
-      <c r="C15" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" t="s">
         <v>74</v>
-      </c>
-      <c r="C16" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
@@ -970,7 +974,7 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C40" t="s">
         <v>17</v>
@@ -978,10 +982,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
+        <v>76</v>
+      </c>
+      <c r="B41" t="s">
         <v>44</v>
-      </c>
-      <c r="B41" t="s">
-        <v>45</v>
       </c>
       <c r="C41" t="s">
         <v>21</v>
@@ -989,24 +993,24 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B42" t="s">
         <v>19</v>
       </c>
       <c r="C42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B43" t="s">
         <v>20</v>
       </c>
       <c r="C43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
